--- a/player_d_dash/defense-dash-lt6_SeasonType_Playoffs_Season_2020-21.xlsx
+++ b/player_d_dash/defense-dash-lt6_SeasonType_Playoffs_Season_2020-21.xlsx
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>41.5%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>41.5%</t>
+          <t>36.2%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>32.3%</t>
+          <t>43.9%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2254,17 +2254,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>65.5</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -2274,42 +2274,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>25.4%</t>
+          <t>32.3%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>65.5</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-18.5</t>
+          <t>-0.5</t>
         </is>
       </c>
     </row>
@@ -2339,42 +2339,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Danny Green</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>42.4%</t>
+          <t>32.3%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2384,17 +2384,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>66.5</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-6.5</t>
+          <t>-3.6</t>
         </is>
       </c>
     </row>
@@ -2404,42 +2404,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Danny Green</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>32.3%</t>
+          <t>25.4%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2449,17 +2449,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-3.6</t>
+          <t>-18.5</t>
         </is>
       </c>
     </row>
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>43.9%</t>
+          <t>42.4%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>66.5</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>-6.5</t>
         </is>
       </c>
     </row>
@@ -2599,22 +2599,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Robin Lopez</t>
+          <t>Julius Randle</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>35.8%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.6</t>
         </is>
       </c>
     </row>
@@ -2729,22 +2729,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Julius Randle</t>
+          <t>Robin Lopez</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>35.8%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>61.8</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -2924,22 +2924,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2949,17 +2949,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>46.9%</t>
+          <t>34.3%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>67.2</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-10.6</t>
+          <t>-21.2</t>
         </is>
       </c>
     </row>
@@ -2989,22 +2989,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3014,17 +3014,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>34.3%</t>
+          <t>46.9%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>67.2</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-21.2</t>
+          <t>-10.6</t>
         </is>
       </c>
     </row>
@@ -3704,22 +3704,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Taj Gibson</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3754,12 +3754,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>62.1</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.4</t>
         </is>
       </c>
     </row>
@@ -3769,22 +3769,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Taj Gibson</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3819,12 +3819,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>62.1</t>
+          <t>61.8</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.6</t>
         </is>
       </c>
     </row>
@@ -3834,42 +3834,42 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Reggie Jackson</t>
+          <t>Danilo Gallinari</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>29.3%</t>
+          <t>39.6%</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>65.1</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>-7.8</t>
         </is>
       </c>
     </row>
@@ -3899,42 +3899,42 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Danilo Gallinari</t>
+          <t>Reggie Jackson</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>39.6%</t>
+          <t>29.3%</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>65.1</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>-7.8</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -4029,42 +4029,42 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Nemanja Bjelica</t>
+          <t>Reggie Bullock</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>27.4%</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4074,17 +4074,17 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>-18.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -4094,42 +4094,42 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Nemanja Bjelica</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>37.8%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>64.5</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>64.1</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-18.3</t>
         </is>
       </c>
     </row>
@@ -4159,17 +4159,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dillon Brooks</t>
+          <t>Nicolas Batum</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4179,17 +4179,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>28.2%</t>
+          <t>37.8%</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4204,17 +4204,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>64.5</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>64.1</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -4224,17 +4224,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Reggie Bullock</t>
+          <t>Dillon Brooks</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>27.4%</t>
+          <t>28.2%</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4624,12 +4624,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4639,17 +4639,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>30.8%</t>
+          <t>27.8%</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>-7.2</t>
+          <t>-2.9</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4689,12 +4689,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4704,17 +4704,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>27.8%</t>
+          <t>30.8%</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4724,17 +4724,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-7.2</t>
         </is>
       </c>
     </row>
@@ -5329,17 +5329,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Facundo Campazzo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>28.1%</t>
+          <t>32.3%</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>68.8</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>62.8</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>-6.5</t>
         </is>
       </c>
     </row>
@@ -5394,22 +5394,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>25.8%</t>
+          <t>28.1%</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>58.9</t>
+          <t>62.8</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-8.9</t>
+          <t>-0.3</t>
         </is>
       </c>
     </row>
@@ -5459,42 +5459,42 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Facundo Campazzo</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>32.3%</t>
+          <t>25.8%</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5504,17 +5504,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>62.8</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-6.5</t>
+          <t>-8.9</t>
         </is>
       </c>
     </row>
@@ -5524,17 +5524,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5569,17 +5569,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>62.8</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>7.3</t>
         </is>
       </c>
     </row>
@@ -5654,22 +5654,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Nerlens Noel</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>23.4%</t>
+          <t>48.4%</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5699,17 +5699,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>62.7</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>-16.0</t>
         </is>
       </c>
     </row>
@@ -5719,42 +5719,42 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>30.8%</t>
+          <t>23.4%</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5764,17 +5764,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.9</t>
         </is>
       </c>
     </row>
@@ -5784,42 +5784,42 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cassius Winston</t>
+          <t>Marc Gasol</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>31.3%</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5829,17 +5829,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>-4.4</t>
         </is>
       </c>
     </row>
@@ -5849,17 +5849,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Kemba Walker</t>
+          <t>Kentavious Caldwell-Pope</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5869,22 +5869,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>27.8%</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5894,17 +5894,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>65.5</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-5.9</t>
+          <t>7.8</t>
         </is>
       </c>
     </row>
@@ -5914,17 +5914,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Kentavious Caldwell-Pope</t>
+          <t>Cassius Winston</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5934,22 +5934,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>27.8%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5959,17 +5959,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>65.5</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -5979,42 +5979,42 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nerlens Noel</t>
+          <t>Kemba Walker</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>48.4%</t>
+          <t>36.0%</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6024,17 +6024,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-5.9</t>
         </is>
       </c>
     </row>
@@ -6044,42 +6044,42 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Marc Gasol</t>
+          <t>Joe Harris</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>31.3%</t>
+          <t>29.5%</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6089,17 +6089,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-4.4</t>
+          <t>-19.0</t>
         </is>
       </c>
     </row>
@@ -6109,42 +6109,42 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Joe Harris</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>29.5%</t>
+          <t>30.8%</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6154,17 +6154,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Seth Curry</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6204,12 +6204,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>27.1%</t>
+          <t>35.7%</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>74.3</t>
+          <t>68.6</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>62.1</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Seth Curry</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6249,12 +6249,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6269,12 +6269,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>35.7%</t>
+          <t>27.1%</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>68.6</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>62.1</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>13.3</t>
         </is>
       </c>
     </row>
@@ -7019,17 +7019,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Carmelo Anthony</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7039,22 +7039,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>30.6%</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7064,17 +7064,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>63.3</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>-3.3</t>
         </is>
       </c>
     </row>
@@ -7084,42 +7084,42 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>JaMychal Green</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>25.9%</t>
+          <t>30.9%</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7129,17 +7129,17 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>67.2</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-19.7</t>
         </is>
       </c>
     </row>
@@ -7149,42 +7149,42 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>JaMychal Green</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>30.9%</t>
+          <t>25.9%</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7194,17 +7194,17 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>67.2</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>-19.7</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -7214,17 +7214,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Carmelo Anthony</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7234,22 +7234,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>30.6%</t>
+          <t>34.5%</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7259,17 +7259,17 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-22.0</t>
         </is>
       </c>
     </row>
@@ -8319,42 +8319,42 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ish Smith</t>
+          <t>Kevin Knox II</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8364,17 +8364,17 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-55.2</t>
         </is>
       </c>
     </row>
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Chandler Hutchison</t>
+          <t>Isaac Bonga</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -8394,32 +8394,32 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-29.5</t>
         </is>
       </c>
     </row>
@@ -8449,22 +8449,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Kevin Knox II</t>
+          <t>Chandler Hutchison</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -8479,12 +8479,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8494,17 +8494,17 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-55.2</t>
+          <t>-5.4</t>
         </is>
       </c>
     </row>
@@ -8514,42 +8514,42 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>26.7%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8559,17 +8559,17 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>9.6</t>
         </is>
       </c>
     </row>
@@ -8579,42 +8579,42 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Jabari Parker</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>26.2%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8624,17 +8624,17 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>22.8</t>
+          <t>-5.3</t>
         </is>
       </c>
     </row>
@@ -8644,42 +8644,42 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Serge Ibaka</t>
+          <t>Cam Reddish</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>30.8%</t>
+          <t>19.0%</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -8689,17 +8689,17 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>60.3</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>-16.9</t>
+          <t>14.7</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Isaac Bonga</t>
+          <t>Ish Smith</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -8729,22 +8729,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>34.5%</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-29.5</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -8774,22 +8774,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Cam Reddish</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -8799,17 +8799,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>19.0%</t>
+          <t>26.7%</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>60.3</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>-7.0</t>
         </is>
       </c>
     </row>
@@ -8839,42 +8839,42 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Jabari Parker</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>26.2%</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8884,17 +8884,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>67.8</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>22.8</t>
         </is>
       </c>
     </row>
@@ -8904,17 +8904,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Serge Ibaka</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -8924,17 +8924,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>30.8%</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8954,12 +8954,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>66.9</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>-12.5</t>
+          <t>-16.9</t>
         </is>
       </c>
     </row>
@@ -8969,17 +8969,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -8989,22 +8989,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9014,17 +9014,17 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>-12.5</t>
         </is>
       </c>
     </row>
@@ -9294,17 +9294,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Alec Burks</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -9319,12 +9319,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>24.3%</t>
+          <t>17.6%</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -9344,12 +9344,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>60.3</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>10.8</t>
         </is>
       </c>
     </row>
@@ -9359,17 +9359,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Alec Burks</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -9384,12 +9384,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>17.6%</t>
+          <t>24.3%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -9409,12 +9409,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>60.3</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>6.4</t>
         </is>
       </c>
     </row>
@@ -9424,12 +9424,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Kris Dunn</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -9454,12 +9454,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>17.1%</t>
+          <t>43.8%</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9469,17 +9469,17 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>-29.3</t>
         </is>
       </c>
     </row>
@@ -9489,17 +9489,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Rondae Hollis-Jefferson</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -9514,12 +9514,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>46.7%</t>
+          <t>17.1%</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -9539,12 +9539,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>62.2</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9554,22 +9554,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
+          <t>Rondae Hollis-Jefferson</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -9579,17 +9579,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>43.8%</t>
+          <t>46.7%</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9599,17 +9599,17 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>62.2</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-29.3</t>
+          <t>9.2</t>
         </is>
       </c>
     </row>
@@ -9814,42 +9814,42 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Nicolo Melli</t>
+          <t>Lou Williams</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>34.9%</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9859,17 +9859,17 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>63.3</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -9879,22 +9879,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>JaVale McGee</t>
+          <t>Nicolo Melli</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -9904,17 +9904,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9924,17 +9924,17 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>24.4</t>
         </is>
       </c>
     </row>
@@ -9944,42 +9944,42 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>E'Twaun Moore</t>
+          <t>JaVale McGee</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>35.7%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9989,17 +9989,17 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>-22.0</t>
         </is>
       </c>
     </row>
@@ -10009,17 +10009,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Lou Williams</t>
+          <t>E'Twaun Moore</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -10029,22 +10029,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>34.9%</t>
+          <t>35.7%</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10054,17 +10054,17 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>20.2</t>
         </is>
       </c>
     </row>
@@ -10269,17 +10269,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Ben McLemore</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -10294,12 +10294,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>15.8%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -10319,12 +10319,12 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -10334,17 +10334,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ben McLemore</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -10359,12 +10359,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>15.8%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -10384,12 +10384,12 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>67.7</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -10659,22 +10659,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Solomon Hill</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -10689,12 +10689,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>32.6%</t>
+          <t>25.5%</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-18.2</t>
         </is>
       </c>
     </row>
@@ -10724,22 +10724,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Solomon Hill</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -10754,12 +10754,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>25.5%</t>
+          <t>32.6%</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10769,17 +10769,17 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>-18.2</t>
+          <t>-1.3</t>
         </is>
       </c>
     </row>
@@ -10789,17 +10789,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -10819,32 +10819,32 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>35.7%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
           <t>1.3</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>66.5</t>
+          <t>62.8</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>33.5</t>
+          <t>-22.8</t>
         </is>
       </c>
     </row>
@@ -10854,42 +10854,42 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Shake Milton</t>
+          <t>Talen Horton-Tucker</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>35.7%</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>66.5</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-6.3</t>
+          <t>33.5</t>
         </is>
       </c>
     </row>
@@ -10919,42 +10919,42 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Shake Milton</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>62.8</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-22.8</t>
+          <t>-6.3</t>
         </is>
       </c>
     </row>
@@ -10984,22 +10984,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Reggie Perry</t>
+          <t>Mike Scott</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -11009,12 +11009,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -11034,12 +11034,12 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>64.2</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -11049,22 +11049,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Mike Scott</t>
+          <t>Reggie Perry</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -11074,12 +11074,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -11099,12 +11099,12 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>64.2</t>
+          <t>61.8</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -11114,22 +11114,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Willie Cauley-Stein</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -11139,12 +11139,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>29.2%</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -11164,12 +11164,12 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>62.8</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-5.6</t>
         </is>
       </c>
     </row>
@@ -11179,12 +11179,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Shaquille Harrison</t>
+          <t>Willie Cauley-Stein</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -11204,17 +11204,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>35.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11224,17 +11224,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -11244,17 +11244,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Shaquille Harrison</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -11274,12 +11274,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>29.2%</t>
+          <t>35.0%</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11289,17 +11289,17 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>62.8</t>
+          <t>60.9</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>10.5</t>
         </is>
       </c>
     </row>
@@ -11569,42 +11569,42 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Jarrell Brantley</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>29.4%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-50.6</t>
+          <t>-7.3</t>
         </is>
       </c>
     </row>
@@ -11634,17 +11634,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Josh Green</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -11654,22 +11654,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11679,17 +11679,17 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>61.2</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>54.3</t>
         </is>
       </c>
     </row>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Alex Len</t>
+          <t>Anthony Gill</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -11714,27 +11714,27 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>22.7%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11744,17 +11744,17 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>65.1</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -11764,22 +11764,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Jay Scrubb</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -11794,7 +11794,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -11814,12 +11814,12 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-8.4</t>
+          <t>-13.4</t>
         </is>
       </c>
     </row>
@@ -11829,12 +11829,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Elfrid Payton</t>
+          <t>Abdel Nader</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -11844,47 +11844,47 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>13.2</t>
         </is>
       </c>
     </row>
@@ -11894,22 +11894,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Josh Green</t>
+          <t>Bruno Fernando</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -11924,7 +11924,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -11944,12 +11944,12 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>57.1</t>
         </is>
       </c>
     </row>
@@ -11959,42 +11959,42 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Jalen Smith</t>
+          <t>Alex Len</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -12004,17 +12004,17 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.1</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>14.9</t>
         </is>
       </c>
     </row>
@@ -12024,42 +12024,42 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Jarrell Brantley</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>29.4%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12069,17 +12069,17 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-7.3</t>
+          <t>-50.6</t>
         </is>
       </c>
     </row>
@@ -12089,22 +12089,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Jay Scrubb</t>
+          <t>Brandon Clarke</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -12119,7 +12119,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -12139,12 +12139,12 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>-13.4</t>
+          <t>-14.4</t>
         </is>
       </c>
     </row>
@@ -12154,42 +12154,42 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Abdel Nader</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12199,17 +12199,17 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>61.2</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>18.8</t>
         </is>
       </c>
     </row>
@@ -12219,42 +12219,42 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nathan Knight</t>
+          <t>Jared Dudley</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12264,17 +12264,17 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-33.7</t>
+          <t>-60.0</t>
         </is>
       </c>
     </row>
@@ -12284,27 +12284,27 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Anthony Gill</t>
+          <t>Langston Galloway</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -12314,12 +12314,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12329,17 +12329,17 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>-4.0</t>
         </is>
       </c>
     </row>
@@ -12349,17 +12349,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Alize Johnson</t>
+          <t>Alfonzo McKinnie</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -12369,22 +12369,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12394,17 +12394,17 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>50.0</t>
         </is>
       </c>
     </row>
@@ -12414,42 +12414,42 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Udoka Azubuike</t>
+          <t>Nathan Knight</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-45.7</t>
+          <t>-33.7</t>
         </is>
       </c>
     </row>
@@ -12479,22 +12479,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Axel Toupane</t>
+          <t>Jalen Smith</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -12509,32 +12509,32 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>-50.0</t>
         </is>
       </c>
     </row>
@@ -12544,42 +12544,42 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Langston Galloway</t>
+          <t>Udoka Azubuike</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-45.7</t>
         </is>
       </c>
     </row>
@@ -12609,17 +12609,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>Elfrid Payton</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -12629,14 +12629,14 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H189" t="inlineStr">
         <is>
           <t>33.3%</t>
@@ -12644,7 +12644,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12654,17 +12654,17 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-46.2</t>
+          <t>43.7</t>
         </is>
       </c>
     </row>
@@ -12674,17 +12674,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Jared Dudley</t>
+          <t>Alize Johnson</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -12694,22 +12694,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-60.0</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -12739,12 +12739,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Alfonzo McKinnie</t>
+          <t>Axel Toupane</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -12789,12 +12789,12 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.5</t>
         </is>
       </c>
     </row>
@@ -12804,17 +12804,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Brandon Clarke</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -12834,7 +12834,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -12854,12 +12854,12 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-14.4</t>
+          <t>-8.4</t>
         </is>
       </c>
     </row>
@@ -12869,22 +12869,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Bruno Fernando</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -12904,27 +12904,27 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>-46.2</t>
         </is>
       </c>
     </row>
@@ -13194,12 +13194,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Jordan Nwora</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>17.4%</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -13244,12 +13244,12 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>61.7</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>11.2</t>
         </is>
       </c>
     </row>
@@ -13259,12 +13259,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Jordan Nwora</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -13274,7 +13274,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>17.4%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -13309,12 +13309,12 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>61.7</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>13.3</t>
         </is>
       </c>
     </row>
@@ -13584,22 +13584,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
+          <t>Elijah Bryant</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -13609,12 +13609,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -13634,12 +13634,12 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>64.8</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>-31.5</t>
+          <t>-23.4</t>
         </is>
       </c>
     </row>
@@ -13649,22 +13649,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Elijah Bryant</t>
+          <t>Obi Toppin</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -13674,12 +13674,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>10.7%</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -13699,12 +13699,12 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>-23.4</t>
+          <t>-31.5</t>
         </is>
       </c>
     </row>
@@ -13844,22 +13844,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Trent Forrest</t>
+          <t>Nassir Little</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -13874,32 +13874,32 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>63.1</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>-63.1</t>
         </is>
       </c>
     </row>
@@ -13909,12 +13909,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>T.J. Leaf</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -13929,7 +13929,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -13939,32 +13939,32 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>63.1</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>-63.1</t>
         </is>
       </c>
     </row>
@@ -13974,27 +13974,27 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -14004,12 +14004,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -14019,17 +14019,17 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>-57.4</t>
+          <t>43.6</t>
         </is>
       </c>
     </row>
@@ -14039,22 +14039,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Yogi Ferrell</t>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -14069,32 +14069,32 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>-57.4</t>
         </is>
       </c>
     </row>
@@ -14169,22 +14169,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>T.J. Leaf</t>
+          <t>Trent Forrest</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -14199,12 +14199,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -14214,17 +14214,17 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>63.1</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>-63.1</t>
+          <t>33.3</t>
         </is>
       </c>
     </row>
@@ -14234,22 +14234,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Juwan Morgan</t>
+          <t>Timothe Luwawu-Cabarrot</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -14284,12 +14284,12 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>65.9</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>33.3</t>
         </is>
       </c>
     </row>
@@ -14299,22 +14299,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Timothe Luwawu-Cabarrot</t>
+          <t>Yogi Ferrell</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -14349,12 +14349,12 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>57.1</t>
         </is>
       </c>
     </row>
@@ -14364,22 +14364,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Nassir Little</t>
+          <t>Juwan Morgan</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -14409,17 +14409,17 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>63.1</t>
+          <t>65.9</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>-63.1</t>
+          <t>34.1</t>
         </is>
       </c>
     </row>
@@ -14429,17 +14429,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Chris Chiozza</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -14479,12 +14479,12 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>73.4</t>
+          <t>76.3</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>23.7</t>
         </is>
       </c>
     </row>
@@ -14494,17 +14494,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Chris Chiozza</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -14524,7 +14524,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -14544,12 +14544,12 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>73.4</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>23.7</t>
+          <t>26.6</t>
         </is>
       </c>
     </row>
